--- a/public/Format_upload_parsed.xlsx
+++ b/public/Format_upload_parsed.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,27 +432,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
